--- a/keywords_excel.xlsx
+++ b/keywords_excel.xlsx
@@ -43,22 +43,22 @@
     <t>Digital marketing</t>
   </si>
   <si>
-    <t>Data analytics, visualization, machine learning, informed decisions, predictive modeling.</t>
-  </si>
-  <si>
-    <t>SQL, Python, NoSQL, ORM, database development.</t>
-  </si>
-  <si>
-    <t>Cybersecurity, Protection, Threats, Privacy, Trends.</t>
-  </si>
-  <si>
-    <t>"Machine learning, fundamentals, advanced topics, neural networks, experts."</t>
-  </si>
-  <si>
-    <t>Websites, Apps, Front-end, Back-end, Full-stack.</t>
-  </si>
-  <si>
-    <t>SEO, social media, PPC, conversion optimization, digital analytics.</t>
+    <t>Data, analytics, data science, machine learning, visualization</t>
+  </si>
+  <si>
+    <t>Database development, SQL, Python, NoSQL, schema.</t>
+  </si>
+  <si>
+    <t>Cybersecurity, threats, trends, protection, privacy.</t>
+  </si>
+  <si>
+    <t>Machine learning, fundamentals, neural networks, natural language processing, unsupervised learning.</t>
+  </si>
+  <si>
+    <t>Internet-based website and app creation.</t>
+  </si>
+  <si>
+    <t>SEO, social media, pay-per-click, conversion optimization, digital analytics.</t>
   </si>
 </sst>
 </file>

--- a/keywords_excel.xlsx
+++ b/keywords_excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -43,6 +43,9 @@
     <t>Digital marketing</t>
   </si>
   <si>
+    <t>Machine Learning scientific paper</t>
+  </si>
+  <si>
     <t>Data, analytics, data science, machine learning, visualization</t>
   </si>
   <si>
@@ -59,6 +62,9 @@
   </si>
   <si>
     <t>SEO, social media, pay-per-click, conversion optimization, digital analytics.</t>
+  </si>
+  <si>
+    <t>Machine Learning Algorithms, Applications, Challenges</t>
   </si>
 </sst>
 </file>
@@ -416,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,7 +450,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -458,7 +464,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -472,7 +478,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -486,7 +492,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -500,7 +506,7 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -514,7 +520,21 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
